--- a/data/trans_orig/P33B1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>76022</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60408</v>
+        <v>60975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93013</v>
+        <v>94889</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1524276053585056</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1211206649472334</v>
+        <v>0.1222573520954615</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1864959531095299</v>
+        <v>0.1902578054089144</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>193</v>
@@ -762,19 +762,19 @@
         <v>128821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>112376</v>
+        <v>113253</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148929</v>
+        <v>146670</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2067710712680967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1803746642522209</v>
+        <v>0.1817832880831698</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2390468024734265</v>
+        <v>0.2354205804605714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>274</v>
@@ -783,19 +783,19 @@
         <v>204842</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>181261</v>
+        <v>182173</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>229860</v>
+        <v>231306</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1826095376052286</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1615873671525429</v>
+        <v>0.1624003108985506</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2049121016439431</v>
+        <v>0.2062006067809394</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>48769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36063</v>
+        <v>36571</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64840</v>
+        <v>64464</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09778560106096239</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07230765177282077</v>
+        <v>0.07332724536653772</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1300083521899578</v>
+        <v>0.1292546909572135</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -833,19 +833,19 @@
         <v>76152</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64092</v>
+        <v>63134</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89585</v>
+        <v>90262</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1222325001586384</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.102874669126521</v>
+        <v>0.1013361738646699</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1437929795124321</v>
+        <v>0.1448796917286175</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>177</v>
@@ -854,19 +854,19 @@
         <v>124922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>107278</v>
+        <v>105690</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>148030</v>
+        <v>146950</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1113632159564876</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09563451447157188</v>
+        <v>0.09421894759169315</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1319630252112844</v>
+        <v>0.1310001989999746</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>94175</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76323</v>
+        <v>76907</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>115152</v>
+        <v>114612</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1888257647199283</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1530314053744782</v>
+        <v>0.1542032301524698</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2308856691615947</v>
+        <v>0.2298034049425795</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>202</v>
@@ -904,19 +904,19 @@
         <v>137504</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>120637</v>
+        <v>120222</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>158276</v>
+        <v>158759</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2207084565628059</v>
+        <v>0.2207084565628058</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1936344148563914</v>
+        <v>0.1929683643576836</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2540497142531234</v>
+        <v>0.2548257434239251</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>289</v>
@@ -925,19 +925,19 @@
         <v>231679</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>204283</v>
+        <v>207445</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>259347</v>
+        <v>258817</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2065331602446412</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1821106283518791</v>
+        <v>0.184929984210132</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2311981682195295</v>
+        <v>0.2307254568982568</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>279773</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>256943</v>
+        <v>255564</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>303866</v>
+        <v>303937</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5609610288606037</v>
+        <v>0.5609610288606036</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5151862413768995</v>
+        <v>0.5124198832007756</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6092677566938847</v>
+        <v>0.6094118183506159</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>339</v>
@@ -975,19 +975,19 @@
         <v>280535</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>256799</v>
+        <v>256262</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>303288</v>
+        <v>303887</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4502879720104591</v>
+        <v>0.450287972010459</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4121901067930351</v>
+        <v>0.4113280820791735</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4868087676397642</v>
+        <v>0.4877704049828601</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>575</v>
@@ -996,19 +996,19 @@
         <v>560308</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>529041</v>
+        <v>526023</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>598553</v>
+        <v>596193</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4994940861936427</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4716209902453444</v>
+        <v>0.4689300345073863</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5335881666733542</v>
+        <v>0.5314843860757399</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>77975</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>62841</v>
+        <v>63089</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>95556</v>
+        <v>97829</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0812122666413802</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06544980185352622</v>
+        <v>0.0657082502617938</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09952360108980658</v>
+        <v>0.1018903799857575</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>226</v>
@@ -1121,19 +1121,19 @@
         <v>143742</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>125869</v>
+        <v>125890</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>162069</v>
+        <v>163391</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1288182295645501</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.112801220797513</v>
+        <v>0.1128198229712454</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1452423424436181</v>
+        <v>0.1464271782379275</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>320</v>
@@ -1142,19 +1142,19 @@
         <v>221717</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>197164</v>
+        <v>198712</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>246845</v>
+        <v>246836</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1068006286183871</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09497344317145658</v>
+        <v>0.09571952446837301</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1189047124581641</v>
+        <v>0.118900456941984</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>54862</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43031</v>
+        <v>42148</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70351</v>
+        <v>69008</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05713933182227304</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0448171744204426</v>
+        <v>0.04389829579405235</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07327232960660254</v>
+        <v>0.07187289408995114</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -1192,19 +1192,19 @@
         <v>134469</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117463</v>
+        <v>116607</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>150801</v>
+        <v>153371</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1205079467982506</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1052680569443726</v>
+        <v>0.1045009127297906</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1351443420589014</v>
+        <v>0.1374475442177675</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>291</v>
@@ -1213,19 +1213,19 @@
         <v>189330</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169499</v>
+        <v>169986</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>215436</v>
+        <v>213780</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09120017123022267</v>
+        <v>0.09120017123022264</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08164741000848202</v>
+        <v>0.08188196653343899</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1037752774193337</v>
+        <v>0.1029777381992322</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>201831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>177318</v>
+        <v>179163</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>232986</v>
+        <v>230444</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2102101462717959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1846803429768786</v>
+        <v>0.1866014698934634</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2426595028611414</v>
+        <v>0.2400117515184028</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>418</v>
@@ -1263,19 +1263,19 @@
         <v>269546</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243248</v>
+        <v>245625</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>293776</v>
+        <v>296448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2415609838384972</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2179940116758761</v>
+        <v>0.2201236654017438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2632754780709921</v>
+        <v>0.2656702180238509</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>632</v>
@@ -1284,19 +1284,19 @@
         <v>471376</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>436537</v>
+        <v>436743</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>507166</v>
+        <v>510818</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2270613247939861</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.210279396149335</v>
+        <v>0.210378561458099</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2443013833481436</v>
+        <v>0.2460603308241951</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>625470</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>588478</v>
+        <v>593970</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>657451</v>
+        <v>655587</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6514382552645509</v>
+        <v>0.651438255264551</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6129108279212027</v>
+        <v>0.6186299545325927</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6847474527222785</v>
+        <v>0.6828056789830187</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>740</v>
@@ -1334,19 +1334,19 @@
         <v>568093</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>538788</v>
+        <v>537744</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>600109</v>
+        <v>599713</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.509112839798702</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4828502118274157</v>
+        <v>0.4819144625481029</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5378052217695507</v>
+        <v>0.5374501864854588</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1274</v>
@@ -1355,19 +1355,19 @@
         <v>1193563</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1148332</v>
+        <v>1146103</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1236153</v>
+        <v>1239998</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5749378753574041</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5531500169859072</v>
+        <v>0.5520766636325284</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5954535751299592</v>
+        <v>0.5973056119096923</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>53787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40859</v>
+        <v>40678</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70864</v>
+        <v>71016</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05139778277657418</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03904390335280047</v>
+        <v>0.0388711629505444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06771706902131031</v>
+        <v>0.06786184934164555</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>118</v>
@@ -1480,19 +1480,19 @@
         <v>81747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67507</v>
+        <v>67683</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97973</v>
+        <v>97930</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07802908637028198</v>
+        <v>0.078029086370282</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06443738961143294</v>
+        <v>0.06460497932832457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09351758905860046</v>
+        <v>0.09347685398389481</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>181</v>
@@ -1501,19 +1501,19 @@
         <v>135533</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>115485</v>
+        <v>114679</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>160838</v>
+        <v>157038</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06472082552426671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05514724389683887</v>
+        <v>0.05476219683979937</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07680443495290953</v>
+        <v>0.07498998388026053</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>56270</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>43653</v>
+        <v>43400</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>72188</v>
+        <v>73052</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05377076153017756</v>
+        <v>0.05377076153017755</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04171458369529978</v>
+        <v>0.04147223141707902</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0689818990026551</v>
+        <v>0.06980762081767951</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>159</v>
@@ -1551,19 +1551,19 @@
         <v>98928</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>85109</v>
+        <v>83151</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>116616</v>
+        <v>116981</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09442928598225135</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08123908375375266</v>
+        <v>0.07936970496821212</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1113123887337602</v>
+        <v>0.1116611544831324</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>223</v>
@@ -1572,19 +1572,19 @@
         <v>155198</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>136168</v>
+        <v>134728</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>180295</v>
+        <v>179955</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.07411130766330291</v>
+        <v>0.07411130766330293</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06502411711371557</v>
+        <v>0.06433650916550009</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08609576165310771</v>
+        <v>0.08593349742579846</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>167214</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>143354</v>
+        <v>145519</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>191514</v>
+        <v>193546</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1597868078455742</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1369867535867295</v>
+        <v>0.1390553520583756</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1830076810979611</v>
+        <v>0.1849498100730406</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>376</v>
@@ -1622,19 +1622,19 @@
         <v>229142</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>208273</v>
+        <v>207639</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>251429</v>
+        <v>253597</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2187215885845308</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.19880206004246</v>
+        <v>0.1981968590325854</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2399950505925673</v>
+        <v>0.2420644405466907</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>569</v>
@@ -1643,19 +1643,19 @@
         <v>396355</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>365284</v>
+        <v>366575</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>431001</v>
+        <v>428670</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1892705543076333</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1744328880877968</v>
+        <v>0.1750497327850205</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2058146012963931</v>
+        <v>0.2047015733628379</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>769209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>738898</v>
+        <v>737056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>798122</v>
+        <v>799150</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7350446478476742</v>
+        <v>0.7350446478476741</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7060799416810887</v>
+        <v>0.7043197358999038</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7626740676322532</v>
+        <v>0.7636561848077916</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>863</v>
@@ -1693,19 +1693,19 @@
         <v>637825</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>610413</v>
+        <v>608996</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>665953</v>
+        <v>664258</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6088200390629359</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5826544283846991</v>
+        <v>0.5813014388402359</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.635668393149886</v>
+        <v>0.6340502161984807</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1572</v>
@@ -1714,19 +1714,19 @@
         <v>1407034</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1366095</v>
+        <v>1365172</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1444703</v>
+        <v>1445496</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6718973125047971</v>
+        <v>0.671897312504797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6523478361482665</v>
+        <v>0.6519071010389441</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6898853447776336</v>
+        <v>0.6902636162695246</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>25231</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16329</v>
+        <v>16943</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37414</v>
+        <v>36763</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02585319225350761</v>
+        <v>0.0258531922535076</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01673178090966506</v>
+        <v>0.01736129470549726</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03833681893898993</v>
+        <v>0.03766988282268802</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -1839,19 +1839,19 @@
         <v>55102</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43161</v>
+        <v>43962</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68396</v>
+        <v>69380</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06066793883257149</v>
+        <v>0.06066793883257148</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04752053407281731</v>
+        <v>0.04840306235955007</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07530517139931334</v>
+        <v>0.0763884766067526</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>104</v>
@@ -1860,19 +1860,19 @@
         <v>80333</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63576</v>
+        <v>62863</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98439</v>
+        <v>97003</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04263530444670312</v>
+        <v>0.04263530444670311</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03374190863143454</v>
+        <v>0.03336354055067825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05224526632770328</v>
+        <v>0.05148283597970598</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>54166</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39972</v>
+        <v>41403</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>73053</v>
+        <v>73283</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05550238346487743</v>
+        <v>0.05550238346487744</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04095761980637052</v>
+        <v>0.04242420241926176</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07485514776613858</v>
+        <v>0.07509078946744568</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>107</v>
@@ -1910,19 +1910,19 @@
         <v>70725</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58769</v>
+        <v>57997</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86972</v>
+        <v>85813</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07786976688547768</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06470609707027478</v>
+        <v>0.06385524723792783</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09575779377981047</v>
+        <v>0.0944819961763386</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>158</v>
@@ -1931,19 +1931,19 @@
         <v>124892</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105434</v>
+        <v>105175</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150052</v>
+        <v>147925</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06628436451937884</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05595748208076811</v>
+        <v>0.05581984424371512</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07963761752686409</v>
+        <v>0.07850898813661676</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>225727</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>199779</v>
+        <v>198383</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>251665</v>
+        <v>254947</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2312942330018969</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2047068260146444</v>
+        <v>0.2032757481407813</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2578718669304784</v>
+        <v>0.2612355880398003</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>448</v>
@@ -1981,19 +1981,19 @@
         <v>250494</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>229978</v>
+        <v>228301</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>276153</v>
+        <v>274133</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2757984810883702</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2532094515327254</v>
+        <v>0.2513633445388189</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.304049581874298</v>
+        <v>0.3018253747780001</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>710</v>
@@ -2002,19 +2002,19 @@
         <v>476221</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>442534</v>
+        <v>440619</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>512013</v>
+        <v>513352</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2527470757725561</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2348683369146562</v>
+        <v>0.2338517825240233</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2717431122285955</v>
+        <v>0.2724536609541348</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>670805</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>640070</v>
+        <v>635856</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>701093</v>
+        <v>699014</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6873501912797182</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6558570938428232</v>
+        <v>0.6515390246599739</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7183854580458339</v>
+        <v>0.7162548999214593</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>685</v>
@@ -2052,19 +2052,19 @@
         <v>531930</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>504087</v>
+        <v>506638</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>558674</v>
+        <v>557403</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5856638131935805</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5550081321169071</v>
+        <v>0.55781677819439</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.61511021897873</v>
+        <v>0.6137098875204686</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1295</v>
@@ -2073,19 +2073,19 @@
         <v>1202735</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1162742</v>
+        <v>1158573</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1242265</v>
+        <v>1243501</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.638333255261362</v>
+        <v>0.6383332552613619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6171077899092072</v>
+        <v>0.6148950549800981</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6593134530979828</v>
+        <v>0.6599691981628129</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>233014</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>204944</v>
+        <v>204831</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>262413</v>
+        <v>263124</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06693337586448515</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05887011939009348</v>
+        <v>0.05883777900864416</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07537827061990174</v>
+        <v>0.07558246511492289</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>617</v>
@@ -2198,19 +2198,19 @@
         <v>409411</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>373899</v>
+        <v>378046</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>442006</v>
+        <v>439784</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1108086816000196</v>
+        <v>0.1108086816000195</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1011972916900957</v>
+        <v>0.1023197336683908</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1196307174104831</v>
+        <v>0.119029313809205</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>879</v>
@@ -2219,19 +2219,19 @@
         <v>642425</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>599429</v>
+        <v>603141</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>685554</v>
+        <v>690097</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.08952361802594272</v>
+        <v>0.08952361802594273</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08353204984226355</v>
+        <v>0.08404926012080313</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09553382876052766</v>
+        <v>0.09616686167281598</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>214067</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>187325</v>
+        <v>187286</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>247573</v>
+        <v>243769</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06149094680265534</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05380926202889822</v>
+        <v>0.05379791971441193</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07111537453117875</v>
+        <v>0.07002259308461069</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>615</v>
@@ -2269,19 +2269,19 @@
         <v>380274</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>351251</v>
+        <v>348942</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>413353</v>
+        <v>410624</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1029227865758581</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09506740059357402</v>
+        <v>0.09444267482110448</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1118756159816069</v>
+        <v>0.1111369530034128</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>849</v>
@@ -2290,19 +2290,19 @@
         <v>594342</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>552578</v>
+        <v>555823</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>636879</v>
+        <v>636227</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08282311253872984</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07700321045861473</v>
+        <v>0.07745535114324466</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08875078538206296</v>
+        <v>0.08865997131460553</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>688946</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>643247</v>
+        <v>641627</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>746211</v>
+        <v>737889</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1978998524894399</v>
+        <v>0.19789985248944</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1847728455199266</v>
+        <v>0.1843076037501237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.214349372766355</v>
+        <v>0.2119587654566776</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1444</v>
@@ -2340,19 +2340,19 @@
         <v>886686</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>845251</v>
+        <v>845191</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>932500</v>
+        <v>931756</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.239985063195983</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.228770683928579</v>
+        <v>0.2287542920830801</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.252384871057398</v>
+        <v>0.2521835499420145</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2200</v>
@@ -2361,19 +2361,19 @@
         <v>1575631</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1513070</v>
+        <v>1512075</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1647319</v>
+        <v>1644077</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2195684217526917</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2108503592392307</v>
+        <v>0.2107117375711731</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2295583108567416</v>
+        <v>0.2291064457561658</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2345257</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2280342</v>
+        <v>2289145</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2403138</v>
+        <v>2404070</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6736758248434197</v>
+        <v>0.6736758248434196</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6550291473966062</v>
+        <v>0.6575577882836886</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6903022752631817</v>
+        <v>0.6905698940858211</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2627</v>
@@ -2411,19 +2411,19 @@
         <v>2018382</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1968032</v>
+        <v>1969314</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2073861</v>
+        <v>2069278</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.5462834686281394</v>
+        <v>0.5462834686281395</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5326559161563207</v>
+        <v>0.5330028256528192</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5612990517497735</v>
+        <v>0.5600586126260383</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4716</v>
@@ -2432,19 +2432,19 @@
         <v>4363640</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4286056</v>
+        <v>4275644</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4444570</v>
+        <v>4434052</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6080848476826358</v>
+        <v>0.6080848476826356</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5972732528736255</v>
+        <v>0.5958223613538963</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6193626458424207</v>
+        <v>0.6178970033665027</v>
       </c>
     </row>
     <row r="28">
